--- a/iOS/Design/Database Pseudo Design.xlsx
+++ b/iOS/Design/Database Pseudo Design.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Mobile Database" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Server Database" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
